--- a/data/trans_dic/P64D$bicicleta_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.05080223452972683</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.009817827319033464</v>
+        <v>0.009817827319033466</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0307287993779409</v>
+        <v>0.03072879937794089</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01277722148585853</v>
+        <v>0.01329157058825299</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01002636896826653</v>
+        <v>0.01216549008500222</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1444404891557577</v>
+        <v>0.1395090855333484</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0339724466603818</v>
+        <v>0.03414530778166001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07657745847156018</v>
+        <v>0.08700529370332785</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.006978307493607398</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01136305303400169</v>
+        <v>0.0113630530340017</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004573184249376536</v>
+        <v>0.004376743858961927</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001957713982829605</v>
+        <v>0.001972359586894463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004699490537323056</v>
+        <v>0.004481153950334328</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03782539391049721</v>
+        <v>0.03808377759111797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01941644787350388</v>
+        <v>0.0206326447297894</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02559550274018767</v>
+        <v>0.02472250157534358</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006685207600103049</v>
+        <v>0.006644609514828761</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004733100101083713</v>
+        <v>0.004363503899046451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007375620533450073</v>
+        <v>0.00783394231352391</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0254243038560075</v>
+        <v>0.02744626014104432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0217616919920037</v>
+        <v>0.02308531002386638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02067696497397857</v>
+        <v>0.02092663178556798</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01082913486270751</v>
+        <v>0.01169835475214907</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006257681831174913</v>
+        <v>0.006278272615514846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01092803780841882</v>
+        <v>0.01085736300374589</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03840212282451847</v>
+        <v>0.04309522849407156</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02575425309925498</v>
+        <v>0.02547469433216679</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02854282607183874</v>
+        <v>0.02933296089815064</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01260508300665938</v>
+        <v>0.01355237636254891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.006506999847325849</v>
+        <v>0.006436683217964622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01152719374816747</v>
+        <v>0.01175847718156427</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02914370155581113</v>
+        <v>0.03088675966403102</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01579535381614593</v>
+        <v>0.01592126341664099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02235451884018531</v>
+        <v>0.02240296226754842</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2270</v>
+        <v>2362</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3491</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25663</v>
+        <v>24786</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5794</v>
+        <v>5824</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26666</v>
+        <v>30297</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2334</v>
+        <v>2234</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4091</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19306</v>
+        <v>19438</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6992</v>
+        <v>7430</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22280</v>
+        <v>21520</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4158</v>
+        <v>4133</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2313</v>
+        <v>2132</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8192</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15813</v>
+        <v>17071</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10634</v>
+        <v>11280</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22964</v>
+        <v>23242</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6395</v>
+        <v>6908</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2888</v>
+        <v>2897</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11497</v>
+        <v>11422</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22677</v>
+        <v>25449</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11885</v>
+        <v>11756</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30028</v>
+        <v>30859</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23957</v>
+        <v>25757</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9635</v>
+        <v>9531</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38977</v>
+        <v>39759</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55389</v>
+        <v>58702</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23390</v>
+        <v>23576</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>75588</v>
+        <v>75752</v>
       </c>
     </row>
     <row r="24">
